--- a/Algorithm/Characteristics_Setting/9.butaneCam/characteristics_data.xlsx
+++ b/Algorithm/Characteristics_Setting/9.butaneCam/characteristics_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DETstorage\sync\research\algorithm\4_new_organization\Algorithm\Characteristics_Setting\butaneCam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scerpa\Algorithm\Characteristics_Setting\9.butaneCam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ECBB42-F785-4BF8-8D54-96C8E0991DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A6479B-0F82-46D4-8862-C5C752B1B882}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37515" yWindow="4080" windowWidth="14400" windowHeight="7455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,7 +420,7 @@
         <v>-2</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
